--- a/DictionaryFrameworkForAndroid/Testexcel.xlsx
+++ b/DictionaryFrameworkForAndroid/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="13600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Run</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>TC_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +121,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,14 +159,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -507,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -551,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -581,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -592,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -618,6 +645,17 @@
       </c>
       <c r="C12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
